--- a/Daten/Wohnungen/Leerwohnungen-Stadt-Zuerich_processing_03.xlsx
+++ b/Daten/Wohnungen/Leerwohnungen-Stadt-Zuerich_processing_03.xlsx
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>447</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>454</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>484</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>483</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>471</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>242</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>206</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>125</v>
+        <v>0.05976171807768067</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>136</v>
+        <v>0.066</v>
       </c>
     </row>
   </sheetData>
